--- a/biology/Microbiologie/Oblongichytriidae/Oblongichytriidae.xlsx
+++ b/biology/Microbiologie/Oblongichytriidae/Oblongichytriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Oblongichytriidae sont une famille de chromistes de l'embranchement des Bigyra, de la classe des Labyrinthulea et de l’ordre des Thraustochytriida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Oblongichytrium, composé du préfixe oblong-, « allongé ; oblong », et du suffixe chytr- (du grec χυτρ / chytr, « vase d'argile, pot de terre »), sans doute en référence au développement circulaire des masses cellulaires, dont certaines espèces produisent des zoospores oblongues.
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Oblongichytrium sont identifiées notamment à partir de leur masse cellulaire et de leur cycle de reproduction (importance de la sporulation, présence ou absence de zoospores).
 Chez Oblongichytrium porteri, les cellules trophiques[note 1] sont fusiformes 2,1-4,0 × 2,2-6,5 μm à orbiculaires 2,3 × 7,8 μm. Les masses cellulaires sont très grandes et circulaires jusqu'à 60,3 μm de diamètre. Le sporange produit 10 à 55 spores mais pas de spores nageant librement. La division cellulaire est bourgeonnante avec parfois des stades amiboïdes.
-Chez les autres espèces on observe des zoospores oblongues et des masses cellulaires (sori) d'importances variables : Oblongichytrium octosporum produit une centaine de sporocytes, chacun émettant huit zoospores ; Oblongichytrium minutum produit un maximum de huit sporocytes, chacun donnant naissance à deux zoospores ;  Oblongichytrium multirudimentale a un sporulation plus modeste de deux à quatre sporocytes, chacun avec un filet ectoplasmique[1].
+Chez les autres espèces on observe des zoospores oblongues et des masses cellulaires (sori) d'importances variables : Oblongichytrium octosporum produit une centaine de sporocytes, chacun émettant huit zoospores ; Oblongichytrium minutum produit un maximum de huit sporocytes, chacun donnant naissance à deux zoospores ;  Oblongichytrium multirudimentale a un sporulation plus modeste de deux à quatre sporocytes, chacun avec un filet ectoplasmique.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Oblongichytrium a été observé sur les zones côtières marines, voire à l'embouchure des fleuves.
 </t>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (12 septembre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (12 septembre 2022) :
 Oblongichytrium R.Yokoy. &amp; D.Honda, 2007</t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct de ce taxon est Oblongichytriidae[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct de ce taxon est Oblongichytriidae.
 </t>
         </is>
       </c>
